--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.0336</v>
+        <v>12.0688</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.800699999999999</v>
+        <v>4.816899999999996</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.662400000000005</v>
+        <v>8.607100000000003</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.187200000000001</v>
+        <v>6.075799999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.15689999999999</v>
+        <v>-12.24979999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.388900000000004</v>
+        <v>5.342100000000003</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.40009999999999</v>
+        <v>13.32249999999999</v>
       </c>
     </row>
     <row r="21">
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.355099999999997</v>
+        <v>5.409999999999993</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
